--- a/biology/Botanique/Côtes-de-bordeaux-saint-macaire/Côtes-de-bordeaux-saint-macaire.xlsx
+++ b/biology/Botanique/Côtes-de-bordeaux-saint-macaire/Côtes-de-bordeaux-saint-macaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-bordeaux-saint-macaire</t>
+          <t>Côtes-de-bordeaux-saint-macaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le côtes-de-bordeaux-saint-macaire[1] ou saint-macaire est un vin blanc français d'appellation d'origine contrôlée produit autour de Saint-Macaire. Cette appellation prolonge vers le sud-est celle des premières-côtes-de-bordeaux, dans le vignoble de l'Entre-deux-Mers, une des subdivisions du vignoble de Bordeaux.
+Le côtes-de-bordeaux-saint-macaire ou saint-macaire est un vin blanc français d'appellation d'origine contrôlée produit autour de Saint-Macaire. Cette appellation prolonge vers le sud-est celle des premières-côtes-de-bordeaux, dans le vignoble de l'Entre-deux-Mers, une des subdivisions du vignoble de Bordeaux.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-bordeaux-saint-macaire</t>
+          <t>Côtes-de-bordeaux-saint-macaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,18 +524,9 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Aire d'appellation
-Caudrot, Le Pian-sur-Garonne, Saint-André-du-Bois, Saint-Laurent-du-Bois, Saint-Laurent-du-Plan, Saint-Macaire, Saint-Martial, Saint-Martin-de-Sescas, Saint-Pierre-d'Aurillac et Sainte-Foy-la-Longue[4].
-Géologie
-Rendements
-60 à 65 hl/ha pour les blancs ;
-45 à 55 hl/ha pour les moelleux ;
-37 à 40 hl/ha pour les liquoreux[4].</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -531,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%B4tes-de-bordeaux-saint-macaire</t>
+          <t>Côtes-de-bordeaux-saint-macaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +549,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aire d'appellation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caudrot, Le Pian-sur-Garonne, Saint-André-du-Bois, Saint-Laurent-du-Bois, Saint-Laurent-du-Plan, Saint-Macaire, Saint-Martial, Saint-Martin-de-Sescas, Saint-Pierre-d'Aurillac et Sainte-Foy-la-Longue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Côtes-de-bordeaux-saint-macaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-bordeaux-saint-macaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Rendements</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>60 à 65 hl/ha pour les blancs ;
+45 à 55 hl/ha pour les moelleux ;
+37 à 40 hl/ha pour les liquoreux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Côtes-de-bordeaux-saint-macaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4tes-de-bordeaux-saint-macaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
